--- a/src/main/resources/poi/scm_inventory_plan.xlsx
+++ b/src/main/resources/poi/scm_inventory_plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangyupeng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_xinruan002\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB92161-1812-4BA2-82B2-4ECBE5105413}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF89865-3CAA-44B3-9ABC-062FB0731B9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10260" yWindow="1488" windowWidth="11976" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>单位</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>t.unitName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>物料代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -91,10 +87,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>t.materielModel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>t.systemCount</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -103,7 +95,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>t.profitLos}}</t>
+    <t>方案子id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.id}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.specification</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.unitNomName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.profitLos</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -150,7 +158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -173,11 +181,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -186,6 +205,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -466,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -478,70 +500,77 @@
     <col min="7" max="7" width="21.21875" customWidth="1"/>
     <col min="8" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="17.77734375" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
         <v>18</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
